--- a/Doc/Check_List.xlsx
+++ b/Doc/Check_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D2\TEACHING\COURSES\2024\Fall\CMPS340\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EC68C-D531-449F-9871-4B413E6236B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BB4BAB-7AC1-2D4C-9783-7A7EFD26D75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="204" windowWidth="26604" windowHeight="16548" xr2:uid="{F8E7E250-95FB-4269-8E38-7F4BA2379842}"/>
+    <workbookView xWindow="19300" yWindow="680" windowWidth="18960" windowHeight="20780" xr2:uid="{F8E7E250-95FB-4269-8E38-7F4BA2379842}"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Generate combinations</t>
   </si>
@@ -190,6 +190,69 @@
   </si>
   <si>
     <t>GROUP NAME</t>
+  </si>
+  <si>
+    <t>config.py</t>
+  </si>
+  <si>
+    <t>72-100</t>
+  </si>
+  <si>
+    <t>process_data.py</t>
+  </si>
+  <si>
+    <t>visualize.py</t>
+  </si>
+  <si>
+    <t>126-146</t>
+  </si>
+  <si>
+    <t>59-60</t>
+  </si>
+  <si>
+    <t>66-77</t>
+  </si>
+  <si>
+    <t>79-90</t>
+  </si>
+  <si>
+    <t>92-93</t>
+  </si>
+  <si>
+    <t>123-124</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>104-107</t>
+  </si>
+  <si>
+    <t>139-141</t>
+  </si>
+  <si>
+    <t>143-152</t>
+  </si>
+  <si>
+    <t>155-156</t>
+  </si>
+  <si>
+    <t>261-262</t>
+  </si>
+  <si>
+    <t>288-306</t>
+  </si>
+  <si>
+    <t>308-313</t>
+  </si>
+  <si>
+    <t>92-99</t>
+  </si>
+  <si>
+    <t>109-126</t>
+  </si>
+  <si>
+    <t>128-137</t>
   </si>
 </sst>
 </file>
@@ -239,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,18 +653,18 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -612,244 +678,495 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="4">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
